--- a/Code/Results/Cases/Case_0_158/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_158/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1400448232360958</v>
+        <v>0.04790737368050202</v>
       </c>
       <c r="D2">
-        <v>0.04440562029876105</v>
+        <v>0.08984926657176118</v>
       </c>
       <c r="E2">
-        <v>0.05274583747857164</v>
+        <v>0.1134667721616456</v>
       </c>
       <c r="F2">
-        <v>1.388914226410307</v>
+        <v>2.191584079143524</v>
       </c>
       <c r="G2">
-        <v>1.141102783420578</v>
+        <v>1.547441977182544</v>
       </c>
       <c r="H2">
-        <v>0.7247875365916485</v>
+        <v>1.383694366216645</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07273430441317075</v>
+        <v>0.1593564290105576</v>
       </c>
       <c r="K2">
-        <v>3.658780585989348</v>
+        <v>1.574579318661733</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7648055187705296</v>
+        <v>0.4711100814171303</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1208050100870963</v>
+        <v>0.04260070930591553</v>
       </c>
       <c r="D3">
-        <v>0.04028451426421498</v>
+        <v>0.08884552614073726</v>
       </c>
       <c r="E3">
-        <v>0.05023613305149333</v>
+        <v>0.113453344488164</v>
       </c>
       <c r="F3">
-        <v>1.311656268923613</v>
+        <v>2.192549122902008</v>
       </c>
       <c r="G3">
-        <v>1.067501265319819</v>
+        <v>1.545299445426807</v>
       </c>
       <c r="H3">
-        <v>0.7015181986659655</v>
+        <v>1.390069314688546</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07135534083837314</v>
+        <v>0.1602241914952955</v>
       </c>
       <c r="K3">
-        <v>3.168987464832981</v>
+        <v>1.437292594492931</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6654730590823306</v>
+        <v>0.4451127177002476</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1091559029053144</v>
+        <v>0.03935978376252081</v>
       </c>
       <c r="D4">
-        <v>0.03777414571811022</v>
+        <v>0.08824260691808661</v>
       </c>
       <c r="E4">
-        <v>0.04876390923092444</v>
+        <v>0.1134868023295592</v>
       </c>
       <c r="F4">
-        <v>1.267903010319671</v>
+        <v>2.194599706022132</v>
       </c>
       <c r="G4">
-        <v>1.025815571412139</v>
+        <v>1.54520239302569</v>
       </c>
       <c r="H4">
-        <v>0.6891445547056207</v>
+        <v>1.394810783348376</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07066435761193901</v>
+        <v>0.1608353916333947</v>
       </c>
       <c r="K4">
-        <v>2.870650735559622</v>
+        <v>1.35340631648873</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6051084386875658</v>
+        <v>0.4293336202403708</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1044442802099184</v>
+        <v>0.03804337332059049</v>
       </c>
       <c r="D5">
-        <v>0.03675551623816631</v>
+        <v>0.08800031083804782</v>
       </c>
       <c r="E5">
-        <v>0.04818025636027912</v>
+        <v>0.113510935269856</v>
       </c>
       <c r="F5">
-        <v>1.250931766352537</v>
+        <v>2.195800942765771</v>
       </c>
       <c r="G5">
-        <v>1.009640958280016</v>
+        <v>1.54546794732579</v>
       </c>
       <c r="H5">
-        <v>0.6845516906308688</v>
+        <v>1.396950535201128</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07041972796426421</v>
+        <v>0.1611041528057306</v>
       </c>
       <c r="K5">
-        <v>2.749575539084503</v>
+        <v>1.319325205370802</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5806445494330816</v>
+        <v>0.4229497474410522</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1036639000688382</v>
+        <v>0.03782504135922693</v>
       </c>
       <c r="D6">
-        <v>0.03658661907167726</v>
+        <v>0.08796028401194178</v>
       </c>
       <c r="E6">
-        <v>0.04808429735856379</v>
+        <v>0.1135155769791467</v>
       </c>
       <c r="F6">
-        <v>1.248163673805976</v>
+        <v>2.196022458971086</v>
       </c>
       <c r="G6">
-        <v>1.007002337055098</v>
+        <v>1.545530432230407</v>
       </c>
       <c r="H6">
-        <v>0.6838153131729428</v>
+        <v>1.397318362720355</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07038127775331304</v>
+        <v>0.1611499691776572</v>
       </c>
       <c r="K6">
-        <v>2.72949838649231</v>
+        <v>1.313672314742689</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5765898875631237</v>
+        <v>0.4218925066646548</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.109092224017374</v>
+        <v>0.03934201291181694</v>
       </c>
       <c r="D7">
-        <v>0.03776039127863129</v>
+        <v>0.08823932542253488</v>
       </c>
       <c r="E7">
-        <v>0.04875597319023051</v>
+        <v>0.113487085269858</v>
       </c>
       <c r="F7">
-        <v>1.267670739750855</v>
+        <v>2.194614427367569</v>
       </c>
       <c r="G7">
-        <v>1.025594232018037</v>
+        <v>1.545204740748744</v>
       </c>
       <c r="H7">
-        <v>0.689080834008422</v>
+        <v>1.394838800973147</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07066091163150645</v>
+        <v>0.1608389365340912</v>
       </c>
       <c r="K7">
-        <v>2.869015981889874</v>
+        <v>1.352946267975966</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.604777990865081</v>
+        <v>0.429247337716383</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1333732151358191</v>
+        <v>0.0460739774795087</v>
       </c>
       <c r="D8">
-        <v>0.04298008851051094</v>
+        <v>0.08950041906479811</v>
       </c>
       <c r="E8">
-        <v>0.05186560032356446</v>
+        <v>0.1134534939473593</v>
       </c>
       <c r="F8">
-        <v>1.361468857248269</v>
+        <v>2.191613583281153</v>
       </c>
       <c r="G8">
-        <v>1.114954185260245</v>
+        <v>1.546449556215805</v>
       </c>
       <c r="H8">
-        <v>0.7163471895858891</v>
+        <v>1.385720486308031</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07222514510261746</v>
+        <v>0.1596393514985515</v>
       </c>
       <c r="K8">
-        <v>3.489337046634432</v>
+        <v>1.527158382938751</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7304118325306348</v>
+        <v>0.4621081904478714</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1825788034762752</v>
+        <v>0.05941756285893973</v>
       </c>
       <c r="D9">
-        <v>0.0534087424850469</v>
+        <v>0.09207830819200069</v>
       </c>
       <c r="E9">
-        <v>0.05855823706119523</v>
+        <v>0.1137180920129985</v>
       </c>
       <c r="F9">
-        <v>1.577970703652653</v>
+        <v>2.197347209229918</v>
       </c>
       <c r="G9">
-        <v>1.321408558034506</v>
+        <v>1.558619333340232</v>
       </c>
       <c r="H9">
-        <v>0.7865681809235241</v>
+        <v>1.374424382873173</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07663635287732617</v>
+        <v>0.1579099360062131</v>
       </c>
       <c r="K9">
-        <v>4.729998970293479</v>
+        <v>1.87202363694621</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9828548710664862</v>
+        <v>0.5280020322065582</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2201433747904105</v>
+        <v>0.06931467748201214</v>
       </c>
       <c r="D10">
-        <v>0.06124251166745864</v>
+        <v>0.09403476808722644</v>
       </c>
       <c r="E10">
-        <v>0.06391349327293838</v>
+        <v>0.1141135617527063</v>
       </c>
       <c r="F10">
-        <v>1.762022641437369</v>
+        <v>2.208715115290317</v>
       </c>
       <c r="G10">
-        <v>1.497360447483061</v>
+        <v>1.573578929368296</v>
       </c>
       <c r="H10">
-        <v>0.8507838807512371</v>
+        <v>1.370170370931476</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08086256727730756</v>
+        <v>0.157020581008176</v>
       </c>
       <c r="K10">
-        <v>5.66434814977714</v>
+        <v>2.12739321531086</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.173751953619217</v>
+        <v>0.5773048456172774</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2376510523066884</v>
+        <v>0.07383900106879082</v>
       </c>
       <c r="D11">
-        <v>0.06485767747034288</v>
+        <v>0.09493809946535947</v>
       </c>
       <c r="E11">
-        <v>0.06646385610012473</v>
+        <v>0.1143370643729895</v>
       </c>
       <c r="F11">
-        <v>1.852476633363239</v>
+        <v>2.215456405632665</v>
       </c>
       <c r="G11">
-        <v>1.58400074426541</v>
+        <v>1.581710445348307</v>
       </c>
       <c r="H11">
-        <v>0.8833492320994765</v>
+        <v>1.369120314797499</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08304095381367205</v>
+        <v>0.1566991049330753</v>
       </c>
       <c r="K11">
-        <v>6.096415074414324</v>
+        <v>2.244008844402288</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.262210945954337</v>
+        <v>0.5999288002571035</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2443515528842966</v>
+        <v>0.07555552423575307</v>
       </c>
       <c r="D12">
-        <v>0.06623539769865516</v>
+        <v>0.09528205676339496</v>
       </c>
       <c r="E12">
-        <v>0.06744781368155728</v>
+        <v>0.1144279608499374</v>
       </c>
       <c r="F12">
-        <v>1.887819665651122</v>
+        <v>2.218236153033828</v>
       </c>
       <c r="G12">
-        <v>1.617883846139023</v>
+        <v>1.584981859311625</v>
       </c>
       <c r="H12">
-        <v>0.8962210983312389</v>
+        <v>1.368850503918424</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08390659713405313</v>
+        <v>0.1565893455539609</v>
       </c>
       <c r="K12">
-        <v>6.261230810520487</v>
+        <v>2.288232469414936</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.29598189211228</v>
+        <v>0.6085240741815738</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2429051559529114</v>
+        <v>0.07518569389962693</v>
       </c>
       <c r="D13">
-        <v>0.06593826956789428</v>
+        <v>0.09520789604491853</v>
       </c>
       <c r="E13">
-        <v>0.06723506157412729</v>
+        <v>0.1144081063521831</v>
       </c>
       <c r="F13">
-        <v>1.880157321556283</v>
+        <v>2.217627370968941</v>
       </c>
       <c r="G13">
-        <v>1.610536576420628</v>
+        <v>1.584268730929494</v>
       </c>
       <c r="H13">
-        <v>0.8934238956099989</v>
+        <v>1.368902918861778</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08371828594221142</v>
+        <v>0.1566124510940057</v>
       </c>
       <c r="K13">
-        <v>6.22567807714978</v>
+        <v>2.278705288473247</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.288695854451291</v>
+        <v>0.6066716809374384</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.238200825165876</v>
+        <v>0.0739801546350094</v>
       </c>
       <c r="D14">
-        <v>0.06497084007954612</v>
+        <v>0.09496635943065712</v>
       </c>
       <c r="E14">
-        <v>0.0665444315100352</v>
+        <v>0.1143444170535837</v>
       </c>
       <c r="F14">
-        <v>1.855361725192665</v>
+        <v>2.215680541426693</v>
       </c>
       <c r="G14">
-        <v>1.586766025246419</v>
+        <v>1.581975726465032</v>
       </c>
       <c r="H14">
-        <v>0.8843970281836846</v>
+        <v>1.369095552407941</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08311133019780215</v>
+        <v>0.156689834774653</v>
       </c>
       <c r="K14">
-        <v>6.109949312386959</v>
+        <v>2.247645871917825</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.264983571910022</v>
+        <v>0.6006353764739032</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2353288265718021</v>
+        <v>0.0732421541269872</v>
       </c>
       <c r="D15">
-        <v>0.06437944138490082</v>
+        <v>0.0948186558891706</v>
       </c>
       <c r="E15">
-        <v>0.06612382530289196</v>
+        <v>0.1143062206107608</v>
       </c>
       <c r="F15">
-        <v>1.840319551250658</v>
+        <v>2.214517645877891</v>
       </c>
       <c r="G15">
-        <v>1.572349757695036</v>
+        <v>1.580596266732584</v>
       </c>
       <c r="H15">
-        <v>0.8789399801533762</v>
+        <v>1.369230208509805</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0827449820240318</v>
+        <v>0.156738795047076</v>
       </c>
       <c r="K15">
-        <v>6.039224608415736</v>
+        <v>2.228629381559358</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.250496012342808</v>
+        <v>0.5969416191233989</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2190085095730439</v>
+        <v>0.06901945381554242</v>
       </c>
       <c r="D16">
-        <v>0.06100739859761006</v>
+        <v>0.09397599876248819</v>
       </c>
       <c r="E16">
-        <v>0.06374926612249965</v>
+        <v>0.1140998319316608</v>
       </c>
       <c r="F16">
-        <v>1.75625680100157</v>
+        <v>2.208306250969969</v>
       </c>
       <c r="G16">
-        <v>1.491841473719433</v>
+        <v>1.573074329462827</v>
       </c>
       <c r="H16">
-        <v>0.8487279290959577</v>
+        <v>1.37025685176539</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08072568013167825</v>
+        <v>0.1570432646756217</v>
       </c>
       <c r="K16">
-        <v>5.636268773507823</v>
+        <v>2.119781061957497</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.16800689587437</v>
+        <v>0.5758302501718333</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2091109831957141</v>
+        <v>0.06643467878761555</v>
       </c>
       <c r="D17">
-        <v>0.0589528509635926</v>
+        <v>0.09346244706022588</v>
       </c>
       <c r="E17">
-        <v>0.06232300386418643</v>
+        <v>0.1139843800768396</v>
       </c>
       <c r="F17">
-        <v>1.706493043544924</v>
+        <v>2.204898725351072</v>
       </c>
       <c r="G17">
-        <v>1.444227081964328</v>
+        <v>1.568800605254864</v>
       </c>
       <c r="H17">
-        <v>0.8310917624502281</v>
+        <v>1.37111374919678</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07955510381007258</v>
+        <v>0.15725134928784</v>
       </c>
       <c r="K17">
-        <v>5.390997120758016</v>
+        <v>2.053120247322227</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.11784461667294</v>
+        <v>0.5629292055953812</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2034569711460392</v>
+        <v>0.06495005733962955</v>
       </c>
       <c r="D18">
-        <v>0.05777589250412518</v>
+        <v>0.09316832201454872</v>
       </c>
       <c r="E18">
-        <v>0.06151329099402858</v>
+        <v>0.1139220797160441</v>
       </c>
       <c r="F18">
-        <v>1.678495372690932</v>
+        <v>2.203086507448688</v>
       </c>
       <c r="G18">
-        <v>1.417453342956634</v>
+        <v>1.56646722393981</v>
       </c>
       <c r="H18">
-        <v>0.821259693933456</v>
+        <v>1.371689892416811</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07890564118334709</v>
+        <v>0.1573788537761871</v>
       </c>
       <c r="K18">
-        <v>5.250572074951549</v>
+        <v>2.014820780400214</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.089142288773289</v>
+        <v>0.555527305893996</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.201548982299272</v>
+        <v>0.06444774344080884</v>
       </c>
       <c r="D19">
-        <v>0.05737817502396325</v>
+        <v>0.09306895306406915</v>
       </c>
       <c r="E19">
-        <v>0.06124091210945437</v>
+        <v>0.1139016911121971</v>
       </c>
       <c r="F19">
-        <v>1.66911970030813</v>
+        <v>2.202498252677685</v>
       </c>
       <c r="G19">
-        <v>1.408489878168638</v>
+        <v>1.565698562910768</v>
       </c>
       <c r="H19">
-        <v>0.8179826196875979</v>
+        <v>1.371899251248152</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07868972273553254</v>
+        <v>0.1574233668155074</v>
       </c>
       <c r="K19">
-        <v>5.203132525558544</v>
+        <v>2.001860478190451</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.079448719685111</v>
+        <v>0.553024319818924</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.210160506104927</v>
+        <v>0.06670961735819958</v>
       </c>
       <c r="D20">
-        <v>0.05917105906249276</v>
+        <v>0.09351698572018563</v>
       </c>
       <c r="E20">
-        <v>0.06247371901706344</v>
+        <v>0.1139962453904602</v>
       </c>
       <c r="F20">
-        <v>1.711724939185402</v>
+        <v>2.205246167133581</v>
       </c>
       <c r="G20">
-        <v>1.449231430973356</v>
+        <v>1.569242628617246</v>
       </c>
       <c r="H20">
-        <v>0.8329364959004977</v>
+        <v>1.371013908099144</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07967722103111896</v>
+        <v>0.1572283888173729</v>
       </c>
       <c r="K20">
-        <v>5.417038254250883</v>
+        <v>2.060212053877251</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.12316870521218</v>
+        <v>0.5643006360371743</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2395805927442893</v>
+        <v>0.07433416157816453</v>
       </c>
       <c r="D21">
-        <v>0.06525474909398099</v>
+        <v>0.09503725366751326</v>
       </c>
       <c r="E21">
-        <v>0.06674677757644787</v>
+        <v>0.1143629542956504</v>
       </c>
       <c r="F21">
-        <v>1.862614159354919</v>
+        <v>2.216246202976464</v>
       </c>
       <c r="G21">
-        <v>1.593717782363115</v>
+        <v>1.582644009917914</v>
       </c>
       <c r="H21">
-        <v>0.8870332848163685</v>
+        <v>1.369035497839945</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08328846856949923</v>
+        <v>0.1566667800480701</v>
       </c>
       <c r="K21">
-        <v>6.143907416545972</v>
+        <v>2.256767046617995</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.271940675164615</v>
+        <v>0.6024076241957772</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2592262813972042</v>
+        <v>0.07933628413285021</v>
       </c>
       <c r="D22">
-        <v>0.06928245136421651</v>
+        <v>0.09604181171582837</v>
       </c>
       <c r="E22">
-        <v>0.06964646224718507</v>
+        <v>0.1146391090550658</v>
       </c>
       <c r="F22">
-        <v>1.967650524318756</v>
+        <v>2.224758865722436</v>
       </c>
       <c r="G22">
-        <v>1.694479226948516</v>
+        <v>1.592523474045322</v>
       </c>
       <c r="H22">
-        <v>0.9255686816084392</v>
+        <v>1.368487795797876</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0858882367746503</v>
+        <v>0.1563695582603231</v>
       </c>
       <c r="K22">
-        <v>6.626066513800311</v>
+        <v>2.385598907170333</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.370788043502444</v>
+        <v>0.6274763406284904</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2486989995684468</v>
+        <v>0.07666478636791396</v>
       </c>
       <c r="D23">
-        <v>0.06712758072838909</v>
+        <v>0.09550466608924069</v>
       </c>
       <c r="E23">
-        <v>0.06808842037901641</v>
+        <v>0.1144883841691851</v>
       </c>
       <c r="F23">
-        <v>1.910958655750264</v>
+        <v>2.22009399591181</v>
       </c>
       <c r="G23">
-        <v>1.640076186538522</v>
+        <v>1.587147571990045</v>
       </c>
       <c r="H23">
-        <v>0.9046896601658148</v>
+        <v>1.368711738471887</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08447734219790703</v>
+        <v>0.1565217932172942</v>
       </c>
       <c r="K23">
-        <v>6.368009564572901</v>
+        <v>2.316805026001475</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.317868741390953</v>
+        <v>0.6140817534885201</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2096859047908737</v>
+        <v>0.06658531327713035</v>
       </c>
       <c r="D24">
-        <v>0.05907239410831977</v>
+        <v>0.09349232529261542</v>
       </c>
       <c r="E24">
-        <v>0.06240554885633998</v>
+        <v>0.113990868390399</v>
       </c>
       <c r="F24">
-        <v>1.709357701459538</v>
+        <v>2.205088631480805</v>
       </c>
       <c r="G24">
-        <v>1.446967103935151</v>
+        <v>1.569042404840076</v>
       </c>
       <c r="H24">
-        <v>0.8321015393401581</v>
+        <v>1.371058786196187</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07962193887665592</v>
+        <v>0.1572387447223846</v>
       </c>
       <c r="K24">
-        <v>5.405263250124051</v>
+        <v>2.057005771098432</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.120761262208319</v>
+        <v>0.5636805653485482</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1690539547119414</v>
+        <v>0.05579183542131716</v>
       </c>
       <c r="D25">
-        <v>0.05056165341238028</v>
+        <v>0.09136984539028958</v>
       </c>
       <c r="E25">
-        <v>0.05667666724703579</v>
+        <v>0.1136111739006189</v>
       </c>
       <c r="F25">
-        <v>1.515416144324135</v>
+        <v>2.194544815686399</v>
       </c>
       <c r="G25">
-        <v>1.261706421984712</v>
+        <v>1.554276529663497</v>
       </c>
       <c r="H25">
-        <v>0.7655440516420242</v>
+        <v>1.37677213917658</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07528298870570183</v>
+        <v>0.1583109450440112</v>
       </c>
       <c r="K25">
-        <v>4.390991812582172</v>
+        <v>1.778379666027092</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9137446494408721</v>
+        <v>0.5100199467522941</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_158/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_158/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04790737368050202</v>
+        <v>0.1400448232360816</v>
       </c>
       <c r="D2">
-        <v>0.08984926657176118</v>
+        <v>0.04440562029888184</v>
       </c>
       <c r="E2">
-        <v>0.1134667721616456</v>
+        <v>0.05274583747856987</v>
       </c>
       <c r="F2">
-        <v>2.191584079143524</v>
+        <v>1.388914226410293</v>
       </c>
       <c r="G2">
-        <v>1.547441977182544</v>
+        <v>1.14110278342055</v>
       </c>
       <c r="H2">
-        <v>1.383694366216645</v>
+        <v>0.7247875365916485</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1593564290105576</v>
+        <v>0.07273430441316719</v>
       </c>
       <c r="K2">
-        <v>1.574579318661733</v>
+        <v>3.658780585989405</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4711100814171303</v>
+        <v>0.7648055187705296</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04260070930591553</v>
+        <v>0.12080501008721</v>
       </c>
       <c r="D3">
-        <v>0.08884552614073726</v>
+        <v>0.04028451426440682</v>
       </c>
       <c r="E3">
-        <v>0.113453344488164</v>
+        <v>0.05023613305146846</v>
       </c>
       <c r="F3">
-        <v>2.192549122902008</v>
+        <v>1.311656268923585</v>
       </c>
       <c r="G3">
-        <v>1.545299445426807</v>
+        <v>1.067501265319791</v>
       </c>
       <c r="H3">
-        <v>1.390069314688546</v>
+        <v>0.7015181986659371</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1602241914952955</v>
+        <v>0.07135534083850104</v>
       </c>
       <c r="K3">
-        <v>1.437292594492931</v>
+        <v>3.168987464832924</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4451127177002476</v>
+        <v>0.6654730590823377</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03935978376252081</v>
+        <v>0.1091559029051865</v>
       </c>
       <c r="D4">
-        <v>0.08824260691808661</v>
+        <v>0.03777414571805338</v>
       </c>
       <c r="E4">
-        <v>0.1134868023295592</v>
+        <v>0.04876390923092977</v>
       </c>
       <c r="F4">
-        <v>2.194599706022132</v>
+        <v>1.267903010319671</v>
       </c>
       <c r="G4">
-        <v>1.54520239302569</v>
+        <v>1.025815571412139</v>
       </c>
       <c r="H4">
-        <v>1.394810783348376</v>
+        <v>0.6891445547056207</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1608353916333947</v>
+        <v>0.0706643576119923</v>
       </c>
       <c r="K4">
-        <v>1.35340631648873</v>
+        <v>2.870650735559622</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4293336202403708</v>
+        <v>0.60510843868758</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03804337332059049</v>
+        <v>0.1044442802098189</v>
       </c>
       <c r="D5">
-        <v>0.08800031083804782</v>
+        <v>0.03675551623804552</v>
       </c>
       <c r="E5">
-        <v>0.113510935269856</v>
+        <v>0.04818025636027734</v>
       </c>
       <c r="F5">
-        <v>2.195800942765771</v>
+        <v>1.250931766352537</v>
       </c>
       <c r="G5">
-        <v>1.54546794732579</v>
+        <v>1.009640958280087</v>
       </c>
       <c r="H5">
-        <v>1.396950535201128</v>
+        <v>0.6845516906307552</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1611041528057306</v>
+        <v>0.07041972796430684</v>
       </c>
       <c r="K5">
-        <v>1.319325205370802</v>
+        <v>2.749575539084503</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4229497474410522</v>
+        <v>0.5806445494330745</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03782504135922693</v>
+        <v>0.1036639000689661</v>
       </c>
       <c r="D6">
-        <v>0.08796028401194178</v>
+        <v>0.03658661907149963</v>
       </c>
       <c r="E6">
-        <v>0.1135155769791467</v>
+        <v>0.04808429735856556</v>
       </c>
       <c r="F6">
-        <v>2.196022458971086</v>
+        <v>1.248163673805948</v>
       </c>
       <c r="G6">
-        <v>1.545530432230407</v>
+        <v>1.007002337055084</v>
       </c>
       <c r="H6">
-        <v>1.397318362720355</v>
+        <v>0.6838153131729428</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1611499691776572</v>
+        <v>0.07038127775332015</v>
       </c>
       <c r="K6">
-        <v>1.313672314742689</v>
+        <v>2.729498386492452</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4218925066646548</v>
+        <v>0.5765898875631308</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03934201291181694</v>
+        <v>0.1090922240171324</v>
       </c>
       <c r="D7">
-        <v>0.08823932542253488</v>
+        <v>0.03776039127882314</v>
       </c>
       <c r="E7">
-        <v>0.113487085269858</v>
+        <v>0.04875597319025005</v>
       </c>
       <c r="F7">
-        <v>2.194614427367569</v>
+        <v>1.267670739750869</v>
       </c>
       <c r="G7">
-        <v>1.545204740748744</v>
+        <v>1.025594232018065</v>
       </c>
       <c r="H7">
-        <v>1.394838800973147</v>
+        <v>0.6890808340085499</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1608389365340912</v>
+        <v>0.07066091163160948</v>
       </c>
       <c r="K7">
-        <v>1.352946267975966</v>
+        <v>2.869015981889788</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.429247337716383</v>
+        <v>0.6047779908650739</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0460739774795087</v>
+        <v>0.1333732151357907</v>
       </c>
       <c r="D8">
-        <v>0.08950041906479811</v>
+        <v>0.0429800885105891</v>
       </c>
       <c r="E8">
-        <v>0.1134534939473593</v>
+        <v>0.05186560032356624</v>
       </c>
       <c r="F8">
-        <v>2.191613583281153</v>
+        <v>1.361468857248255</v>
       </c>
       <c r="G8">
-        <v>1.546449556215805</v>
+        <v>1.114954185260302</v>
       </c>
       <c r="H8">
-        <v>1.385720486308031</v>
+        <v>0.7163471895859033</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1596393514985515</v>
+        <v>0.07222514510256062</v>
       </c>
       <c r="K8">
-        <v>1.527158382938751</v>
+        <v>3.489337046634432</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4621081904478714</v>
+        <v>0.730411832530649</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05941756285893973</v>
+        <v>0.1825788034760905</v>
       </c>
       <c r="D9">
-        <v>0.09207830819200069</v>
+        <v>0.05340874248513927</v>
       </c>
       <c r="E9">
-        <v>0.1137180920129985</v>
+        <v>0.05855823706117036</v>
       </c>
       <c r="F9">
-        <v>2.197347209229918</v>
+        <v>1.57797070365261</v>
       </c>
       <c r="G9">
-        <v>1.558619333340232</v>
+        <v>1.321408558034534</v>
       </c>
       <c r="H9">
-        <v>1.374424382873173</v>
+        <v>0.7865681809235525</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1579099360062131</v>
+        <v>0.07663635287723025</v>
       </c>
       <c r="K9">
-        <v>1.87202363694621</v>
+        <v>4.729998970293423</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5280020322065582</v>
+        <v>0.9828548710664862</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06931467748201214</v>
+        <v>0.2201433747899841</v>
       </c>
       <c r="D10">
-        <v>0.09403476808722644</v>
+        <v>0.06124251166716022</v>
       </c>
       <c r="E10">
-        <v>0.1141135617527063</v>
+        <v>0.06391349327292772</v>
       </c>
       <c r="F10">
-        <v>2.208715115290317</v>
+        <v>1.762022641437383</v>
       </c>
       <c r="G10">
-        <v>1.573578929368296</v>
+        <v>1.497360447483089</v>
       </c>
       <c r="H10">
-        <v>1.370170370931476</v>
+        <v>0.8507838807512371</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.157020581008176</v>
+        <v>0.08086256727737151</v>
       </c>
       <c r="K10">
-        <v>2.12739321531086</v>
+        <v>5.66434814977714</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5773048456172774</v>
+        <v>1.173751953619231</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07383900106879082</v>
+        <v>0.2376510523065178</v>
       </c>
       <c r="D11">
-        <v>0.09493809946535947</v>
+        <v>0.06485767747036419</v>
       </c>
       <c r="E11">
-        <v>0.1143370643729895</v>
+        <v>0.06646385610013539</v>
       </c>
       <c r="F11">
-        <v>2.215456405632665</v>
+        <v>1.85247663336321</v>
       </c>
       <c r="G11">
-        <v>1.581710445348307</v>
+        <v>1.58400074426541</v>
       </c>
       <c r="H11">
-        <v>1.369120314797499</v>
+        <v>0.883349232099448</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1566991049330753</v>
+        <v>0.08304095381365073</v>
       </c>
       <c r="K11">
-        <v>2.244008844402288</v>
+        <v>6.096415074414381</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5999288002571035</v>
+        <v>1.262210945954337</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07555552423575307</v>
+        <v>0.2443515528840123</v>
       </c>
       <c r="D12">
-        <v>0.09528205676339496</v>
+        <v>0.06623539769886122</v>
       </c>
       <c r="E12">
-        <v>0.1144279608499374</v>
+        <v>0.06744781368154662</v>
       </c>
       <c r="F12">
-        <v>2.218236153033828</v>
+        <v>1.887819665651136</v>
       </c>
       <c r="G12">
-        <v>1.584981859311625</v>
+        <v>1.617883846139023</v>
       </c>
       <c r="H12">
-        <v>1.368850503918424</v>
+        <v>0.8962210983312389</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1565893455539609</v>
+        <v>0.08390659713402471</v>
       </c>
       <c r="K12">
-        <v>2.288232469414936</v>
+        <v>6.261230810520544</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6085240741815738</v>
+        <v>1.295981892112295</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07518569389962693</v>
+        <v>0.2429051559525846</v>
       </c>
       <c r="D13">
-        <v>0.09520789604491853</v>
+        <v>0.06593826956778059</v>
       </c>
       <c r="E13">
-        <v>0.1144081063521831</v>
+        <v>0.06723506157413084</v>
       </c>
       <c r="F13">
-        <v>2.217627370968941</v>
+        <v>1.880157321556297</v>
       </c>
       <c r="G13">
-        <v>1.584268730929494</v>
+        <v>1.61053657642077</v>
       </c>
       <c r="H13">
-        <v>1.368902918861778</v>
+        <v>0.8934238956100273</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1566124510940057</v>
+        <v>0.08371828594214037</v>
       </c>
       <c r="K13">
-        <v>2.278705288473247</v>
+        <v>6.225678077149894</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6066716809374384</v>
+        <v>1.288695854451277</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0739801546350094</v>
+        <v>0.2382008251659613</v>
       </c>
       <c r="D14">
-        <v>0.09496635943065712</v>
+        <v>0.0649708400795177</v>
       </c>
       <c r="E14">
-        <v>0.1143444170535837</v>
+        <v>0.06654443151005296</v>
       </c>
       <c r="F14">
-        <v>2.215680541426693</v>
+        <v>1.855361725192651</v>
       </c>
       <c r="G14">
-        <v>1.581975726465032</v>
+        <v>1.586766025246476</v>
       </c>
       <c r="H14">
-        <v>1.369095552407941</v>
+        <v>0.8843970281836562</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.156689834774653</v>
+        <v>0.08311133019773109</v>
       </c>
       <c r="K14">
-        <v>2.247645871917825</v>
+        <v>6.109949312386846</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6006353764739032</v>
+        <v>1.264983571910051</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0732421541269872</v>
+        <v>0.2353288265720153</v>
       </c>
       <c r="D15">
-        <v>0.0948186558891706</v>
+        <v>0.06437944138508556</v>
       </c>
       <c r="E15">
-        <v>0.1143062206107608</v>
+        <v>0.06612382530290617</v>
       </c>
       <c r="F15">
-        <v>2.214517645877891</v>
+        <v>1.840319551250687</v>
       </c>
       <c r="G15">
-        <v>1.580596266732584</v>
+        <v>1.572349757695036</v>
       </c>
       <c r="H15">
-        <v>1.369230208509805</v>
+        <v>0.8789399801532625</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.156738795047076</v>
+        <v>0.08274498202401048</v>
       </c>
       <c r="K15">
-        <v>2.228629381559358</v>
+        <v>6.039224608415452</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5969416191233989</v>
+        <v>1.250496012342794</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06901945381554242</v>
+        <v>0.2190085095732002</v>
       </c>
       <c r="D16">
-        <v>0.09397599876248819</v>
+        <v>0.06100739859760296</v>
       </c>
       <c r="E16">
-        <v>0.1140998319316608</v>
+        <v>0.06374926612251386</v>
       </c>
       <c r="F16">
-        <v>2.208306250969969</v>
+        <v>1.75625680100157</v>
       </c>
       <c r="G16">
-        <v>1.573074329462827</v>
+        <v>1.491841473719489</v>
       </c>
       <c r="H16">
-        <v>1.37025685176539</v>
+        <v>0.8487279290960714</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1570432646756217</v>
+        <v>0.08072568013173509</v>
       </c>
       <c r="K16">
-        <v>2.119781061957497</v>
+        <v>5.636268773507823</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5758302501718333</v>
+        <v>1.168006895874385</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06643467878761555</v>
+        <v>0.2091109831958988</v>
       </c>
       <c r="D17">
-        <v>0.09346244706022588</v>
+        <v>0.05895285096350733</v>
       </c>
       <c r="E17">
-        <v>0.1139843800768396</v>
+        <v>0.0623230038642113</v>
       </c>
       <c r="F17">
-        <v>2.204898725351072</v>
+        <v>1.706493043544938</v>
       </c>
       <c r="G17">
-        <v>1.568800605254864</v>
+        <v>1.444227081964328</v>
       </c>
       <c r="H17">
-        <v>1.37111374919678</v>
+        <v>0.8310917624501144</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.15725134928784</v>
+        <v>0.07955510381007258</v>
       </c>
       <c r="K17">
-        <v>2.053120247322227</v>
+        <v>5.390997120757902</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5629292055953812</v>
+        <v>1.11784461667294</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06495005733962955</v>
+        <v>0.2034569711461671</v>
       </c>
       <c r="D18">
-        <v>0.09316832201454872</v>
+        <v>0.05777589250425308</v>
       </c>
       <c r="E18">
-        <v>0.1139220797160441</v>
+        <v>0.06151329099401437</v>
       </c>
       <c r="F18">
-        <v>2.203086507448688</v>
+        <v>1.678495372690946</v>
       </c>
       <c r="G18">
-        <v>1.56646722393981</v>
+        <v>1.417453342956634</v>
       </c>
       <c r="H18">
-        <v>1.371689892416811</v>
+        <v>0.8212596939335697</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1573788537761871</v>
+        <v>0.07890564118330445</v>
       </c>
       <c r="K18">
-        <v>2.014820780400214</v>
+        <v>5.250572074951663</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.555527305893996</v>
+        <v>1.089142288773296</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06444774344080884</v>
+        <v>0.2015489822992151</v>
       </c>
       <c r="D19">
-        <v>0.09306895306406915</v>
+        <v>0.0573781750241622</v>
       </c>
       <c r="E19">
-        <v>0.1139016911121971</v>
+        <v>0.06124091210945437</v>
       </c>
       <c r="F19">
-        <v>2.202498252677685</v>
+        <v>1.669119700308116</v>
       </c>
       <c r="G19">
-        <v>1.565698562910768</v>
+        <v>1.408489878168751</v>
       </c>
       <c r="H19">
-        <v>1.371899251248152</v>
+        <v>0.8179826196875979</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1574233668155074</v>
+        <v>0.07868972273559649</v>
       </c>
       <c r="K19">
-        <v>2.001860478190451</v>
+        <v>5.203132525558487</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.553024319818924</v>
+        <v>1.079448719685139</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06670961735819958</v>
+        <v>0.2101605061048701</v>
       </c>
       <c r="D20">
-        <v>0.09351698572018563</v>
+        <v>0.05917105906248565</v>
       </c>
       <c r="E20">
-        <v>0.1139962453904602</v>
+        <v>0.06247371901707055</v>
       </c>
       <c r="F20">
-        <v>2.205246167133581</v>
+        <v>1.711724939185387</v>
       </c>
       <c r="G20">
-        <v>1.569242628617246</v>
+        <v>1.449231430973327</v>
       </c>
       <c r="H20">
-        <v>1.371013908099144</v>
+        <v>0.8329364959006114</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1572283888173729</v>
+        <v>0.07967722103111896</v>
       </c>
       <c r="K20">
-        <v>2.060212053877251</v>
+        <v>5.417038254250883</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5643006360371743</v>
+        <v>1.123168705212166</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07433416157816453</v>
+        <v>0.2395805927442893</v>
       </c>
       <c r="D21">
-        <v>0.09503725366751326</v>
+        <v>0.06525474909405204</v>
       </c>
       <c r="E21">
-        <v>0.1143629542956504</v>
+        <v>0.06674677757644787</v>
       </c>
       <c r="F21">
-        <v>2.216246202976464</v>
+        <v>1.862614159354933</v>
       </c>
       <c r="G21">
-        <v>1.582644009917914</v>
+        <v>1.593717782363029</v>
       </c>
       <c r="H21">
-        <v>1.369035497839945</v>
+        <v>0.8870332848163685</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1566667800480701</v>
+        <v>0.08328846856949923</v>
       </c>
       <c r="K21">
-        <v>2.256767046617995</v>
+        <v>6.143907416545858</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6024076241957772</v>
+        <v>1.271940675164615</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07933628413285021</v>
+        <v>0.2592262813974315</v>
       </c>
       <c r="D22">
-        <v>0.09604181171582837</v>
+        <v>0.06928245136435862</v>
       </c>
       <c r="E22">
-        <v>0.1146391090550658</v>
+        <v>0.06964646224719573</v>
       </c>
       <c r="F22">
-        <v>2.224758865722436</v>
+        <v>1.967650524318756</v>
       </c>
       <c r="G22">
-        <v>1.592523474045322</v>
+        <v>1.694479226948459</v>
       </c>
       <c r="H22">
-        <v>1.368487795797876</v>
+        <v>0.9255686816084108</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1563695582603231</v>
+        <v>0.08588823677462187</v>
       </c>
       <c r="K22">
-        <v>2.385598907170333</v>
+        <v>6.626066513800367</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6274763406284904</v>
+        <v>1.370788043502444</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07666478636791396</v>
+        <v>0.2486989995687594</v>
       </c>
       <c r="D23">
-        <v>0.09550466608924069</v>
+        <v>0.06712758072838909</v>
       </c>
       <c r="E23">
-        <v>0.1144883841691851</v>
+        <v>0.06808842037901641</v>
       </c>
       <c r="F23">
-        <v>2.22009399591181</v>
+        <v>1.910958655750278</v>
       </c>
       <c r="G23">
-        <v>1.587147571990045</v>
+        <v>1.640076186538522</v>
       </c>
       <c r="H23">
-        <v>1.368711738471887</v>
+        <v>0.9046896601656726</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1565217932172942</v>
+        <v>0.0844773421978573</v>
       </c>
       <c r="K23">
-        <v>2.316805026001475</v>
+        <v>6.368009564572844</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6140817534885201</v>
+        <v>1.317868741390953</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06658531327713035</v>
+        <v>0.2096859047910442</v>
       </c>
       <c r="D24">
-        <v>0.09349232529261542</v>
+        <v>0.05907239410832688</v>
       </c>
       <c r="E24">
-        <v>0.113990868390399</v>
+        <v>0.06240554885634353</v>
       </c>
       <c r="F24">
-        <v>2.205088631480805</v>
+        <v>1.709357701459524</v>
       </c>
       <c r="G24">
-        <v>1.569042404840076</v>
+        <v>1.446967103935151</v>
       </c>
       <c r="H24">
-        <v>1.371058786196187</v>
+        <v>0.8321015393401581</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1572387447223846</v>
+        <v>0.07962193887671276</v>
       </c>
       <c r="K24">
-        <v>2.057005771098432</v>
+        <v>5.405263250123937</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5636805653485482</v>
+        <v>1.120761262208319</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05579183542131716</v>
+        <v>0.1690539547119272</v>
       </c>
       <c r="D25">
-        <v>0.09136984539028958</v>
+        <v>0.05056165341238028</v>
       </c>
       <c r="E25">
-        <v>0.1136111739006189</v>
+        <v>0.05667666724705001</v>
       </c>
       <c r="F25">
-        <v>2.194544815686399</v>
+        <v>1.515416144324135</v>
       </c>
       <c r="G25">
-        <v>1.554276529663497</v>
+        <v>1.261706421984741</v>
       </c>
       <c r="H25">
-        <v>1.37677213917658</v>
+        <v>0.7655440516420242</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1583109450440112</v>
+        <v>0.07528298870576577</v>
       </c>
       <c r="K25">
-        <v>1.778379666027092</v>
+        <v>4.390991812582342</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5100199467522941</v>
+        <v>0.9137446494408579</v>
       </c>
       <c r="N25">
         <v>0</v>
